--- a/scripts/evaluationStats.xlsx
+++ b/scripts/evaluationStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>APPLICATION NAME</t>
   </si>
@@ -25,6 +25,9 @@
     <t>#DYNAMICWAITTIME</t>
   </si>
   <si>
+    <t>#INFOWARNINGFCM</t>
+  </si>
+  <si>
     <t>#CHECKNETWORK</t>
   </si>
   <si>
@@ -52,12 +55,6 @@
     <t>https://github.com/asdoi/TimeTable</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>92lleo/WhatsappWebToGo</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>https://github.com/ktt-ol/hacs</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>mkulesh/microMathematics</t>
   </si>
   <si>
@@ -85,16 +79,10 @@
     <t>https://github.com/Rudloff/openvegemap-cordova</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>pla1/FediPhoto</t>
   </si>
   <si>
     <t>https://github.com/pla1/FediPhoto</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
   <si>
     <t>mkulesh/onpc</t>
@@ -523,13 +511,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,645 +548,708 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" t="s">
-        <v>12</v>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/evaluationStats.xlsx
+++ b/scripts/evaluationStats.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anasofiaribeiro/Desktop/Thesis/Refactor4Green/scripts/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28BB176-4FEE-1C41-817E-5215AB7E089B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Apps" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>APPLICATION NAME</t>
   </si>
@@ -167,13 +173,127 @@
   </si>
   <si>
     <t>https://github.com/NathanielMotus/Cavevin</t>
+  </si>
+  <si>
+    <t>thetwom/toc2</t>
+  </si>
+  <si>
+    <t>https://github.com/thetwom/toc2</t>
+  </si>
+  <si>
+    <t>OxfordHCC/tracker-control-android</t>
+  </si>
+  <si>
+    <t>https://github.com/OxfordHCC/tracker-control-android</t>
+  </si>
+  <si>
+    <t>DoubleGremlin181/WhatsApp-Twitch-Stickers</t>
+  </si>
+  <si>
+    <t>https://github.com/DoubleGremlin181/WhatsApp-Twitch-Stickers</t>
+  </si>
+  <si>
+    <t>h0chi/next-companion</t>
+  </si>
+  <si>
+    <t>https://github.com/h0chi/next-companion</t>
+  </si>
+  <si>
+    <t>OpenArchive/Save-app-android</t>
+  </si>
+  <si>
+    <t>https://github.com/OpenArchive/openarchive-android</t>
+  </si>
+  <si>
+    <t>rnauber/xskat-android</t>
+  </si>
+  <si>
+    <t>https://github.com/rnauber/xskat-android</t>
+  </si>
+  <si>
+    <t>vanilla-music/vanilla-music-lyrics-search</t>
+  </si>
+  <si>
+    <t>https://github.com/vanilla-music/vanilla-music-lyrics-search</t>
+  </si>
+  <si>
+    <t>fabienli/DokuwikiAndroid</t>
+  </si>
+  <si>
+    <t>https://github.com/fabienli/DokuwikiAndroid</t>
+  </si>
+  <si>
+    <t>TeamNewPipe/NewPipe-legacy</t>
+  </si>
+  <si>
+    <t>https://github.com/TeamNewPipe/NewPipe-legacy</t>
+  </si>
+  <si>
+    <t>rmst/yoke-android</t>
+  </si>
+  <si>
+    <t>https://github.com/rmst/yoke-android</t>
+  </si>
+  <si>
+    <t>termux/termux-float</t>
+  </si>
+  <si>
+    <t>https://github.com/termux/termux-float</t>
+  </si>
+  <si>
+    <t>matejdro/PebbleDialer-Android</t>
+  </si>
+  <si>
+    <t>https://github.com/matejdro/PebbleDialer-Android</t>
+  </si>
+  <si>
+    <t>Pygmalion69/OpenTopoMapViewer</t>
+  </si>
+  <si>
+    <t>https://github.com/Pygmalion69/OpenTopoMapViewer</t>
+  </si>
+  <si>
+    <t>Perflyst/Twire</t>
+  </si>
+  <si>
+    <t>https://github.com/Perflyst/Twire</t>
+  </si>
+  <si>
+    <t>Abdallah-Abdelazim/mynotes-app</t>
+  </si>
+  <si>
+    <t>https://github.com/Abdallah-Abdelazim/mynotes</t>
+  </si>
+  <si>
+    <t>Alcidauk/CineLog</t>
+  </si>
+  <si>
+    <t>https://github.com/Alcidauk/CineLog</t>
+  </si>
+  <si>
+    <t>seguri/Lock</t>
+  </si>
+  <si>
+    <t>https://github.com/seguri/lock</t>
+  </si>
+  <si>
+    <t>ruleant/getback_gps</t>
+  </si>
+  <si>
+    <t>https://github.com/ruleant/getback_gps</t>
+  </si>
+  <si>
+    <t>benjaminaigner/aiproute</t>
+  </si>
+  <si>
+    <t>https://github.com/benjaminaigner/aiproute</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,14 +328,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -223,6 +347,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -269,7 +401,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -301,9 +433,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -335,6 +485,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -510,14 +678,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -587,7 +757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -622,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -657,7 +827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -692,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -727,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -762,7 +932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -797,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -832,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -867,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -902,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -937,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -972,7 +1142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1007,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1042,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1077,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1112,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1147,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1182,7 +1352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1217,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1252,28 +1422,695 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>6</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B18" r:id="rId17"/>
-    <hyperlink ref="B19" r:id="rId18"/>
-    <hyperlink ref="B20" r:id="rId19"/>
-    <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{1E1C86BB-519B-6D47-A71B-385747A7013E}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{C74821F6-38B4-FC4A-BB74-67A167B3D5A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scripts/evaluationStats.xlsx
+++ b/scripts/evaluationStats.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anasofiaribeiro/Desktop/Thesis/Refactor4Green/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28BB176-4FEE-1C41-817E-5215AB7E089B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F5637E-A603-8A47-8465-6E78BC7329B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apps" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>APPLICATION NAME</t>
   </si>
@@ -287,6 +297,132 @@
   </si>
   <si>
     <t>https://github.com/benjaminaigner/aiproute</t>
+  </si>
+  <si>
+    <t>Catfriend1/syncthing-android-fdroid</t>
+  </si>
+  <si>
+    <t>https://github.com/Catfriend1/syncthing-android-fdroid</t>
+  </si>
+  <si>
+    <t>hoihei/Silectric</t>
+  </si>
+  <si>
+    <t>https://github.com/hoihei/Silectric</t>
+  </si>
+  <si>
+    <t>arnowelzel/periodical</t>
+  </si>
+  <si>
+    <t>https://github.com/arnowelzel/periodical</t>
+  </si>
+  <si>
+    <t>ajh3/NoSurfForReddit</t>
+  </si>
+  <si>
+    <t>https://github.com/ajh3/NoSurfForReddit</t>
+  </si>
+  <si>
+    <t>fistons/TinyTinyFeed</t>
+  </si>
+  <si>
+    <t>https://github.com/fistons/TinyTinyFeed</t>
+  </si>
+  <si>
+    <t>Tortel/SysLog</t>
+  </si>
+  <si>
+    <t>https://github.com/Tortel/SysLog</t>
+  </si>
+  <si>
+    <t>mcastillof/FakeTraveler</t>
+  </si>
+  <si>
+    <t>https://github.com/mcastillof/FakeTraveler</t>
+  </si>
+  <si>
+    <t>apcro/leafpicrevived</t>
+  </si>
+  <si>
+    <t>https://github.com/apcro/leafpicrevived</t>
+  </si>
+  <si>
+    <t>fei0316/snapstreak-alarm</t>
+  </si>
+  <si>
+    <t>https://github.com/fei0316/snapstreak-alarm</t>
+  </si>
+  <si>
+    <t>devgianlu/DNSHero</t>
+  </si>
+  <si>
+    <t>https://github.com/devgianlu/DNSHero</t>
+  </si>
+  <si>
+    <t>js-labs/WalkieTalkie</t>
+  </si>
+  <si>
+    <t>https://github.com/js-labs/WalkieTalkie</t>
+  </si>
+  <si>
+    <t>TachibanaGeneralLaboratories/download-navi</t>
+  </si>
+  <si>
+    <t>https://github.com/TachibanaGeneralLaboratories/download-navi</t>
+  </si>
+  <si>
+    <t>k3b/LosslessJpgCrop</t>
+  </si>
+  <si>
+    <t>https://github.com/k3b/LosslessJpgCrop</t>
+  </si>
+  <si>
+    <t>nvllsvm/Audinaut</t>
+  </si>
+  <si>
+    <t>https://github.com/nvllsvm/Audinaut</t>
+  </si>
+  <si>
+    <t>tobykurien/BatteryFu</t>
+  </si>
+  <si>
+    <t>https://github.com/tobykurien/BatteryFu</t>
+  </si>
+  <si>
+    <t>bradand/XMouse</t>
+  </si>
+  <si>
+    <t>https://github.com/bradand/XMouse</t>
+  </si>
+  <si>
+    <t>knirirr/BeeCount</t>
+  </si>
+  <si>
+    <t>https://github.com/knirirr/BeeCount</t>
+  </si>
+  <si>
+    <t>SecUSo/privacy-friendly-pain-diary</t>
+  </si>
+  <si>
+    <t>https://github.com/SecUSo/privacy-friendly-pain-diary</t>
+  </si>
+  <si>
+    <t>btcontract/lnwallet</t>
+  </si>
+  <si>
+    <t>https://github.com/btcontract/lnwallet</t>
+  </si>
+  <si>
+    <t>devgianlu/PretendYoureXyzzyAndroid</t>
+  </si>
+  <si>
+    <t>https://github.com/devgianlu/PretendYoureXyzzyAndroid</t>
+  </si>
+  <si>
+    <t>Rudloff/lineageos-updater-shortcut</t>
+  </si>
+  <si>
+    <t>https://github.com/Rudloff/lineageos-updater-shortcut</t>
   </si>
 </sst>
 </file>
@@ -333,9 +469,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -679,13 +819,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="110" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1424,10 +1568,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>129</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1459,10 +1603,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1477,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1486,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1494,10 +1638,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1521,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1529,10 +1673,10 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1556,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1564,10 +1708,10 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1591,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1599,10 +1743,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1634,10 +1778,10 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1661,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1669,10 +1813,10 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1704,10 +1848,10 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1716,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1725,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1739,10 +1883,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1751,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1760,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -1774,10 +1918,10 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1809,10 +1953,10 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1844,10 +1988,10 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1868,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1879,10 +2023,10 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1900,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -1914,10 +2058,10 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1935,13 +2079,13 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -1949,10 +2093,10 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1984,10 +2128,10 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2019,10 +2163,10 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2043,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2054,36 +2198,771 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>87</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>88</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
         <v>0</v>
       </c>
     </row>
@@ -2109,8 +2988,14 @@
     <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{1E1C86BB-519B-6D47-A71B-385747A7013E}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{C74821F6-38B4-FC4A-BB74-67A167B3D5A9}"/>
+    <hyperlink ref="B23" r:id="rId21" xr:uid="{5338B409-5D5E-C243-B546-A005EF64F723}"/>
+    <hyperlink ref="B22" r:id="rId22" xr:uid="{4AC2B82F-9353-B747-BBBF-741842066405}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{18B81C81-A2D4-7843-B555-C5FEBAA13887}"/>
+    <hyperlink ref="B42" r:id="rId24" xr:uid="{35A8D3AE-8920-E342-8EFA-1469D9A7CE2F}"/>
+    <hyperlink ref="B46" r:id="rId25" xr:uid="{56A3CB28-DE2D-564E-88EC-71E04CD587B9}"/>
+    <hyperlink ref="B53" r:id="rId26" xr:uid="{0E58EA01-E61A-3A4A-9DED-E6441FDAE6A9}"/>
+    <hyperlink ref="B60" r:id="rId27" xr:uid="{EC988BDD-A96A-B84B-A770-5F5D2798D44C}"/>
+    <hyperlink ref="B55" r:id="rId28" xr:uid="{4B0A2D53-7A90-A147-8832-3946A83D2565}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scripts/evaluationStats.xlsx
+++ b/scripts/evaluationStats.xlsx
@@ -8,29 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anasofiaribeiro/Desktop/Thesis/Refactor4Green/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F5637E-A603-8A47-8465-6E78BC7329B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DC4E1A-3741-984A-B1A7-E976AD792F3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apps" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
   <si>
     <t>APPLICATION NAME</t>
   </si>
@@ -185,6 +175,12 @@
     <t>https://github.com/NathanielMotus/Cavevin</t>
   </si>
   <si>
+    <t>Rudloff/lineageos-updater-shortcut</t>
+  </si>
+  <si>
+    <t>https://github.com/Rudloff/lineageos-updater-shortcut</t>
+  </si>
+  <si>
     <t>thetwom/toc2</t>
   </si>
   <si>
@@ -419,10 +415,244 @@
     <t>https://github.com/devgianlu/PretendYoureXyzzyAndroid</t>
   </si>
   <si>
-    <t>Rudloff/lineageos-updater-shortcut</t>
-  </si>
-  <si>
-    <t>https://github.com/Rudloff/lineageos-updater-shortcut</t>
+    <t>tengusw/share_to_clipboard</t>
+  </si>
+  <si>
+    <t>https://github.com/tengusw/share_to_clipboard</t>
+  </si>
+  <si>
+    <t>raatmarien/chibe</t>
+  </si>
+  <si>
+    <t>https://github.com/raatmarien/chibe</t>
+  </si>
+  <si>
+    <t>andreynovikov/trekarta</t>
+  </si>
+  <si>
+    <t>https://github.com/andreynovikov/trekarta</t>
+  </si>
+  <si>
+    <t>ivpn/android-app</t>
+  </si>
+  <si>
+    <t>https://github.com/ivpn/android-app</t>
+  </si>
+  <si>
+    <t>sanbeg/flashlight</t>
+  </si>
+  <si>
+    <t>https://github.com/sanbeg/flashlight</t>
+  </si>
+  <si>
+    <t>SecUSo/privacy-friendly-tape-measure</t>
+  </si>
+  <si>
+    <t>https://github.com/SecUSo/privacy-friendly-tape-measure</t>
+  </si>
+  <si>
+    <t>AdrienPoupa/AttestationDeplacement</t>
+  </si>
+  <si>
+    <t>https://github.com/AdrienPoupa/AttestationDeplacement</t>
+  </si>
+  <si>
+    <t>beegee-tokyo/disaster-radio-android</t>
+  </si>
+  <si>
+    <t>https://github.com/beegee-tokyo/disaster-radio-android</t>
+  </si>
+  <si>
+    <t>vanilla-music/vanilla-music-cover-fetch</t>
+  </si>
+  <si>
+    <t>https://github.com/vanilla-music/vanilla-music-cover-fetch</t>
+  </si>
+  <si>
+    <t>wseemann/RoMote</t>
+  </si>
+  <si>
+    <t>https://github.com/wseemann/RoMote</t>
+  </si>
+  <si>
+    <t>chaosdorf/meteroid</t>
+  </si>
+  <si>
+    <t>https://github.com/chaosdorf/meteroid</t>
+  </si>
+  <si>
+    <t>billthefarmer/scope</t>
+  </si>
+  <si>
+    <t>https://github.com/billthefarmer/scope</t>
+  </si>
+  <si>
+    <t>billthefarmer/shorty</t>
+  </si>
+  <si>
+    <t>https://github.com/billthefarmer/shorty</t>
+  </si>
+  <si>
+    <t>billthefarmer/crossword</t>
+  </si>
+  <si>
+    <t>https://github.com/billthefarmer/crossword</t>
+  </si>
+  <si>
+    <t>phikal/ReGeX</t>
+  </si>
+  <si>
+    <t>https://github.com/phikal/ReGeX</t>
+  </si>
+  <si>
+    <t>xavierfreyburger/tempus-romanum</t>
+  </si>
+  <si>
+    <t>https://github.com/xavierfreyburger/tempus-romanum</t>
+  </si>
+  <si>
+    <t>SecUSo/privacy-friendly-pin-mnemonic</t>
+  </si>
+  <si>
+    <t>https://github.com/SecUSo/privacy-friendly-pin-mnemonic</t>
+  </si>
+  <si>
+    <t>JohnLines/mediclog</t>
+  </si>
+  <si>
+    <t>https://github.com/JohnLines/mediclog</t>
+  </si>
+  <si>
+    <t>wistein/TourCount</t>
+  </si>
+  <si>
+    <t>https://github.com/wistein/TourCount</t>
+  </si>
+  <si>
+    <t>wistein/TransektCount</t>
+  </si>
+  <si>
+    <t>https://github.com/wistein/TransektCount</t>
+  </si>
+  <si>
+    <t>phrogg/DSAAssistant</t>
+  </si>
+  <si>
+    <t>https://github.com/phrogg/DSAAssistant</t>
+  </si>
+  <si>
+    <t>phrogg/BatteryCalibrator</t>
+  </si>
+  <si>
+    <t>https://github.com/phrogg/BatteryCalibrator</t>
+  </si>
+  <si>
+    <t>rascarlo/ArchPackages</t>
+  </si>
+  <si>
+    <t>https://github.com/rascarlo/ArchPackages</t>
+  </si>
+  <si>
+    <t>developerfromjokela/motioneye-client</t>
+  </si>
+  <si>
+    <t>https://github.com/developerfromjokela/motioneye-client</t>
+  </si>
+  <si>
+    <t>Harvie/NorthDog</t>
+  </si>
+  <si>
+    <t>https://github.com/Harvie/NorthDog</t>
+  </si>
+  <si>
+    <t>Stypox/mastercom-workbook</t>
+  </si>
+  <si>
+    <t>https://github.com/Stypox/mastercom-workbook</t>
+  </si>
+  <si>
+    <t>akvo/akvo-rsr-up</t>
+  </si>
+  <si>
+    <t>https://github.com/akvo/akvo-rsr-up</t>
+  </si>
+  <si>
+    <t>SecUSo/privacy-friendly-werewolf</t>
+  </si>
+  <si>
+    <t>https://github.com/SecUSo/privacy-friendly-werewolf</t>
+  </si>
+  <si>
+    <t>GittyMac/MoClock</t>
+  </si>
+  <si>
+    <t>https://github.com/GittyMac/MoClock</t>
+  </si>
+  <si>
+    <t>forrestguice/SuntimesCalendars</t>
+  </si>
+  <si>
+    <t>https://github.com/forrestguice/SuntimesCalendars</t>
+  </si>
+  <si>
+    <t>btimofeev/instead-launcher-android</t>
+  </si>
+  <si>
+    <t>https://github.com/btimofeev/instead-launcher-android/</t>
+  </si>
+  <si>
+    <t>freshollie/UsbGps4Droid</t>
+  </si>
+  <si>
+    <t>https://github.com/freshollie/UsbGps4Droid</t>
+  </si>
+  <si>
+    <t>gjedeer/Acastus</t>
+  </si>
+  <si>
+    <t>https://github.com/gjedeer/Acastus</t>
+  </si>
+  <si>
+    <t>HappyPeng2x/SumatoraDictionary</t>
+  </si>
+  <si>
+    <t>https://github.com/HappyPeng2x/SumatoraDictionary</t>
+  </si>
+  <si>
+    <t>CorvetteCole/GotoSleep</t>
+  </si>
+  <si>
+    <t>https://github.com/CorvetteCole/GotoSleep</t>
+  </si>
+  <si>
+    <t>punksta/volume_control_android</t>
+  </si>
+  <si>
+    <t>https://github.com/punksta/volume_control_android</t>
+  </si>
+  <si>
+    <t>cetoolbox/cetoolbox</t>
+  </si>
+  <si>
+    <t>https://github.com/cetoolbox/cetoolbox</t>
+  </si>
+  <si>
+    <t>quaddy-services/DynamicNightLight</t>
+  </si>
+  <si>
+    <t>https://github.com/quaddy-services/DynamicNightLight</t>
+  </si>
+  <si>
+    <t>tmarzeion/drawable-notepad</t>
+  </si>
+  <si>
+    <t>https://github.com/tmarzeion/drawable-notepad</t>
+  </si>
+  <si>
+    <t>KeikaiLauncher/KeikaiLauncher</t>
+  </si>
+  <si>
+    <t>https://github.com/KeikaiLauncher/KeikaiLauncher</t>
   </si>
 </sst>
 </file>
@@ -819,16 +1049,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="110" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="110" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.1640625" customWidth="1"/>
     <col min="2" max="2" width="50.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -880,7 +1111,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1195,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1568,10 +1799,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>130</v>
+        <v>51</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1603,10 +1834,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1638,10 +1869,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1673,10 +1904,10 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1708,10 +1939,10 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1743,10 +1974,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1778,10 +2009,10 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1813,10 +2044,10 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1848,10 +2079,10 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1883,10 +2114,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1918,10 +2149,10 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1953,10 +2184,10 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1988,10 +2219,10 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2023,10 +2254,10 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2058,10 +2289,10 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2093,10 +2324,10 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2128,10 +2359,10 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2163,10 +2394,10 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2198,10 +2429,10 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2233,10 +2464,10 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2268,10 +2499,10 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2303,10 +2534,10 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2338,10 +2569,10 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2373,10 +2604,10 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2408,10 +2639,10 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>97</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2443,10 +2674,10 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2478,10 +2709,10 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2513,10 +2744,10 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2548,10 +2779,10 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2583,10 +2814,10 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2618,10 +2849,10 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2653,10 +2884,10 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>111</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2688,10 +2919,10 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -2723,10 +2954,10 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>115</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2758,10 +2989,10 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2793,10 +3024,10 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B57" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2828,10 +3059,10 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2863,10 +3094,10 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2898,10 +3129,10 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>125</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2933,10 +3164,10 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B61" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2963,6 +3194,1406 @@
         <v>0</v>
       </c>
       <c r="K61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>131</v>
+      </c>
+      <c r="B62" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>3</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>3</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>139</v>
+      </c>
+      <c r="B66" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>143</v>
+      </c>
+      <c r="B68" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>145</v>
+      </c>
+      <c r="B69" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>147</v>
+      </c>
+      <c r="B70" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>2</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>149</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>153</v>
+      </c>
+      <c r="B73" t="s">
+        <v>154</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>155</v>
+      </c>
+      <c r="B74" t="s">
+        <v>156</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>157</v>
+      </c>
+      <c r="B75" t="s">
+        <v>158</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>159</v>
+      </c>
+      <c r="B76" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>161</v>
+      </c>
+      <c r="B77" t="s">
+        <v>162</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>163</v>
+      </c>
+      <c r="B78" t="s">
+        <v>164</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>165</v>
+      </c>
+      <c r="B79" t="s">
+        <v>166</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80" t="s">
+        <v>168</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>169</v>
+      </c>
+      <c r="B81" t="s">
+        <v>170</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>171</v>
+      </c>
+      <c r="B82" t="s">
+        <v>172</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>173</v>
+      </c>
+      <c r="B83" t="s">
+        <v>174</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>175</v>
+      </c>
+      <c r="B84" t="s">
+        <v>176</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>177</v>
+      </c>
+      <c r="B85" t="s">
+        <v>178</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>4</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>179</v>
+      </c>
+      <c r="B86" t="s">
+        <v>180</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>181</v>
+      </c>
+      <c r="B87" t="s">
+        <v>182</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>2</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>183</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>185</v>
+      </c>
+      <c r="B89" t="s">
+        <v>186</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>187</v>
+      </c>
+      <c r="B90" t="s">
+        <v>188</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>189</v>
+      </c>
+      <c r="B91" t="s">
+        <v>190</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>191</v>
+      </c>
+      <c r="B92" t="s">
+        <v>192</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>193</v>
+      </c>
+      <c r="B93" t="s">
+        <v>194</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>195</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>197</v>
+      </c>
+      <c r="B95" t="s">
+        <v>198</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>199</v>
+      </c>
+      <c r="B96" t="s">
+        <v>200</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>201</v>
+      </c>
+      <c r="B97" t="s">
+        <v>202</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>203</v>
+      </c>
+      <c r="B98" t="s">
+        <v>204</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>205</v>
+      </c>
+      <c r="B99" t="s">
+        <v>206</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>207</v>
+      </c>
+      <c r="B100" t="s">
+        <v>208</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>209</v>
+      </c>
+      <c r="B101" t="s">
+        <v>210</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
         <v>0</v>
       </c>
     </row>
@@ -2988,14 +4619,19 @@
     <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B23" r:id="rId21" xr:uid="{5338B409-5D5E-C243-B546-A005EF64F723}"/>
-    <hyperlink ref="B22" r:id="rId22" xr:uid="{4AC2B82F-9353-B747-BBBF-741842066405}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{18B81C81-A2D4-7843-B555-C5FEBAA13887}"/>
-    <hyperlink ref="B42" r:id="rId24" xr:uid="{35A8D3AE-8920-E342-8EFA-1469D9A7CE2F}"/>
-    <hyperlink ref="B46" r:id="rId25" xr:uid="{56A3CB28-DE2D-564E-88EC-71E04CD587B9}"/>
-    <hyperlink ref="B53" r:id="rId26" xr:uid="{0E58EA01-E61A-3A4A-9DED-E6441FDAE6A9}"/>
-    <hyperlink ref="B60" r:id="rId27" xr:uid="{EC988BDD-A96A-B84B-A770-5F5D2798D44C}"/>
-    <hyperlink ref="B55" r:id="rId28" xr:uid="{4B0A2D53-7A90-A147-8832-3946A83D2565}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B42" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B46" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B53" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B55" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B60" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B64" r:id="rId29" xr:uid="{1B0068FE-C109-D340-96D5-20AAE3326D59}"/>
+    <hyperlink ref="B71" r:id="rId30" xr:uid="{2BC5A891-09F4-5C4E-AE69-E4624AB5AFFB}"/>
+    <hyperlink ref="B94" r:id="rId31" xr:uid="{D022DEFE-707B-3B49-9F78-C5F8829F9FE8}"/>
+    <hyperlink ref="B88" r:id="rId32" xr:uid="{D97E41EF-050E-5840-88D7-90C170781DB8}"/>
+    <hyperlink ref="B65" r:id="rId33" xr:uid="{17445096-E7BF-5141-AACD-FD0E42666A31}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scripts/evaluationStats.xlsx
+++ b/scripts/evaluationStats.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anasofiaribeiro/Desktop/Thesis/Refactor4Green/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DC4E1A-3741-984A-B1A7-E976AD792F3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D97CD2-011C-4B49-A87B-FFEB1FD61245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apps" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
   <si>
     <t>APPLICATION NAME</t>
   </si>
@@ -653,6 +664,39 @@
   </si>
   <si>
     <t>https://github.com/KeikaiLauncher/KeikaiLauncher</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>#GZIPCOMPRESSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L </t>
   </si>
 </sst>
 </file>
@@ -1049,20 +1093,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="110" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.1640625" customWidth="1"/>
     <col min="2" max="2" width="50.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1096,8 +1141,11 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1131,8 +1179,23 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f xml:space="preserve"> COUNTIFS(Q2:Q101, 10)</f>
+        <v>64</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P33" si="0" xml:space="preserve"> COUNTIFS(C2:K2, 0)</f>
+        <v>6</v>
+      </c>
+      <c r="Q2">
+        <f xml:space="preserve"> COUNTIFS(C2:L2, 0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1166,8 +1229,23 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f xml:space="preserve"> 100 - O2</f>
+        <v>36</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q3">
+        <f xml:space="preserve"> COUNTIFS(C3:L3, 0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1201,8 +1279,19 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q66" si="1" xml:space="preserve"> COUNTIFS(C4:L4, 0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1236,8 +1325,19 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1271,8 +1371,19 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1306,8 +1417,19 @@
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1341,8 +1463,19 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1376,8 +1509,19 @@
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1411,8 +1555,19 @@
       <c r="K10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1446,8 +1601,23 @@
       <c r="K11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <f xml:space="preserve"> 100 - COUNTIFS(L2:L101, 0)</f>
+        <v>14</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1481,8 +1651,19 @@
       <c r="K12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1516,8 +1697,19 @@
       <c r="K13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1551,8 +1743,19 @@
       <c r="K14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1586,8 +1789,19 @@
       <c r="K15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1621,8 +1835,19 @@
       <c r="K16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1656,8 +1881,26 @@
       <c r="K17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>211</v>
+      </c>
+      <c r="O17">
+        <f>SUM(C2:C101)</f>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1691,8 +1934,26 @@
       <c r="K18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>212</v>
+      </c>
+      <c r="O18">
+        <f>SUM(D2:D101)</f>
+        <v>8</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1726,8 +1987,26 @@
       <c r="K19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>213</v>
+      </c>
+      <c r="O19">
+        <f>SUM(E2:E101)</f>
+        <v>6</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1761,8 +2040,26 @@
       <c r="K20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>214</v>
+      </c>
+      <c r="O20">
+        <f>SUM(F2:F101)</f>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1796,8 +2093,26 @@
       <c r="K21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>215</v>
+      </c>
+      <c r="O21">
+        <f>SUM(G2:G101)</f>
+        <v>11</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1831,8 +2146,26 @@
       <c r="K22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>216</v>
+      </c>
+      <c r="O22">
+        <f>SUM(H2:H101)</f>
+        <v>10</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1866,8 +2199,26 @@
       <c r="K23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>217</v>
+      </c>
+      <c r="O23">
+        <f>SUM(I2:I101)</f>
+        <v>9</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1901,8 +2252,26 @@
       <c r="K24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>218</v>
+      </c>
+      <c r="O24">
+        <f>SUM(J2:J101)</f>
+        <v>40</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -1936,8 +2305,26 @@
       <c r="K25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>219</v>
+      </c>
+      <c r="O25">
+        <f>SUM(K2:K101)</f>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -1971,8 +2358,26 @@
       <c r="K26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>221</v>
+      </c>
+      <c r="O26">
+        <f xml:space="preserve">  SUM(L2:L101)</f>
+        <v>21</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -2006,8 +2411,19 @@
       <c r="K27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -2041,8 +2457,19 @@
       <c r="K28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2076,8 +2503,19 @@
       <c r="K29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -2111,8 +2549,19 @@
       <c r="K30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -2146,8 +2595,19 @@
       <c r="K31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -2181,8 +2641,19 @@
       <c r="K32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -2216,8 +2687,19 @@
       <c r="K33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -2251,8 +2733,19 @@
       <c r="K34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" ref="P34:P65" si="2" xml:space="preserve"> COUNTIFS(C34:K34, 0)</f>
+        <v>9</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -2286,8 +2779,19 @@
       <c r="K35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -2321,8 +2825,19 @@
       <c r="K36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -2356,8 +2871,19 @@
       <c r="K37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -2391,8 +2917,19 @@
       <c r="K38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -2426,8 +2963,19 @@
       <c r="K39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>87</v>
       </c>
@@ -2461,8 +3009,19 @@
       <c r="K40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>89</v>
       </c>
@@ -2496,8 +3055,19 @@
       <c r="K41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>91</v>
       </c>
@@ -2531,8 +3101,19 @@
       <c r="K42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -2566,8 +3147,19 @@
       <c r="K43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -2601,8 +3193,19 @@
       <c r="K44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>97</v>
       </c>
@@ -2636,8 +3239,19 @@
       <c r="K45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -2671,8 +3285,19 @@
       <c r="K46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>101</v>
       </c>
@@ -2706,8 +3331,19 @@
       <c r="K47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -2741,8 +3377,19 @@
       <c r="K48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>105</v>
       </c>
@@ -2776,8 +3423,19 @@
       <c r="K49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>107</v>
       </c>
@@ -2811,8 +3469,19 @@
       <c r="K50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>109</v>
       </c>
@@ -2846,8 +3515,19 @@
       <c r="K51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>111</v>
       </c>
@@ -2881,8 +3561,19 @@
       <c r="K52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -2916,8 +3607,19 @@
       <c r="K53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>115</v>
       </c>
@@ -2951,8 +3653,19 @@
       <c r="K54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>117</v>
       </c>
@@ -2986,8 +3699,19 @@
       <c r="K55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>119</v>
       </c>
@@ -3021,8 +3745,19 @@
       <c r="K56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>121</v>
       </c>
@@ -3056,8 +3791,19 @@
       <c r="K57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>123</v>
       </c>
@@ -3091,8 +3837,19 @@
       <c r="K58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>125</v>
       </c>
@@ -3126,8 +3883,19 @@
       <c r="K59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>127</v>
       </c>
@@ -3161,8 +3929,19 @@
       <c r="K60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>129</v>
       </c>
@@ -3196,8 +3975,19 @@
       <c r="K61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>131</v>
       </c>
@@ -3231,8 +4021,19 @@
       <c r="K62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>133</v>
       </c>
@@ -3266,8 +4067,19 @@
       <c r="K63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>135</v>
       </c>
@@ -3301,8 +4113,19 @@
       <c r="K64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>137</v>
       </c>
@@ -3336,8 +4159,19 @@
       <c r="K65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>139</v>
       </c>
@@ -3371,8 +4205,19 @@
       <c r="K66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <f t="shared" ref="P66:P101" si="3" xml:space="preserve"> COUNTIFS(C66:K66, 0)</f>
+        <v>9</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>141</v>
       </c>
@@ -3406,8 +4251,19 @@
       <c r="K67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q101" si="4" xml:space="preserve"> COUNTIFS(C67:L67, 0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>143</v>
       </c>
@@ -3441,8 +4297,19 @@
       <c r="K68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>145</v>
       </c>
@@ -3476,8 +4343,19 @@
       <c r="K69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>147</v>
       </c>
@@ -3511,8 +4389,19 @@
       <c r="K70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>149</v>
       </c>
@@ -3546,8 +4435,19 @@
       <c r="K71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>151</v>
       </c>
@@ -3581,8 +4481,19 @@
       <c r="K72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>153</v>
       </c>
@@ -3616,8 +4527,19 @@
       <c r="K73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>155</v>
       </c>
@@ -3651,8 +4573,19 @@
       <c r="K74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>157</v>
       </c>
@@ -3686,8 +4619,19 @@
       <c r="K75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>159</v>
       </c>
@@ -3721,8 +4665,19 @@
       <c r="K76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>161</v>
       </c>
@@ -3756,8 +4711,19 @@
       <c r="K77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>163</v>
       </c>
@@ -3791,8 +4757,19 @@
       <c r="K78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>165</v>
       </c>
@@ -3826,8 +4803,19 @@
       <c r="K79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>167</v>
       </c>
@@ -3861,8 +4849,19 @@
       <c r="K80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>169</v>
       </c>
@@ -3896,8 +4895,19 @@
       <c r="K81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>171</v>
       </c>
@@ -3931,8 +4941,19 @@
       <c r="K82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>173</v>
       </c>
@@ -3966,8 +4987,19 @@
       <c r="K83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>175</v>
       </c>
@@ -4001,8 +5033,19 @@
       <c r="K84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>177</v>
       </c>
@@ -4036,8 +5079,19 @@
       <c r="K85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>179</v>
       </c>
@@ -4071,8 +5125,19 @@
       <c r="K86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>181</v>
       </c>
@@ -4106,8 +5171,19 @@
       <c r="K87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>183</v>
       </c>
@@ -4141,8 +5217,19 @@
       <c r="K88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>185</v>
       </c>
@@ -4176,8 +5263,19 @@
       <c r="K89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>187</v>
       </c>
@@ -4211,8 +5309,19 @@
       <c r="K90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>189</v>
       </c>
@@ -4246,8 +5355,19 @@
       <c r="K91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>191</v>
       </c>
@@ -4281,8 +5401,19 @@
       <c r="K92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>193</v>
       </c>
@@ -4316,8 +5447,19 @@
       <c r="K93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>195</v>
       </c>
@@ -4351,8 +5493,19 @@
       <c r="K94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>197</v>
       </c>
@@ -4386,8 +5539,19 @@
       <c r="K95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>199</v>
       </c>
@@ -4421,8 +5585,19 @@
       <c r="K96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>201</v>
       </c>
@@ -4456,8 +5631,19 @@
       <c r="K97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>203</v>
       </c>
@@ -4491,8 +5677,19 @@
       <c r="K98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>205</v>
       </c>
@@ -4526,8 +5723,19 @@
       <c r="K99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>207</v>
       </c>
@@ -4561,8 +5769,19 @@
       <c r="K100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>209</v>
       </c>
@@ -4595,6 +5814,17 @@
       </c>
       <c r="K101">
         <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/evaluationStats.xlsx
+++ b/scripts/evaluationStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anasofiaribeiro/Desktop/Thesis/Refactor4Green/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D97CD2-011C-4B49-A87B-FFEB1FD61245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DD4335-F4DC-1F45-B425-6044CAEE87E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apps" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="225">
   <si>
     <t>APPLICATION NAME</t>
   </si>
@@ -697,6 +697,15 @@
   </si>
   <si>
     <t xml:space="preserve">L </t>
+  </si>
+  <si>
+    <t>#Problems</t>
+  </si>
+  <si>
+    <t>#Apps</t>
+  </si>
+  <si>
+    <t>2 retirados</t>
   </si>
 </sst>
 </file>
@@ -1095,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1604,10 +1613,6 @@
       <c r="L11">
         <v>2</v>
       </c>
-      <c r="N11">
-        <f xml:space="preserve"> 100 - COUNTIFS(L2:L101, 0)</f>
-        <v>14</v>
-      </c>
       <c r="P11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1744,7 +1749,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>224</v>
       </c>
       <c r="P14">
         <f t="shared" si="0"/>
@@ -1838,6 +1846,9 @@
       <c r="L16">
         <v>0</v>
       </c>
+      <c r="O16" t="s">
+        <v>222</v>
+      </c>
       <c r="P16">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2366,7 +2377,7 @@
       </c>
       <c r="O26">
         <f xml:space="preserve">  SUM(L2:L101)</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P26">
         <f t="shared" si="0"/>
@@ -2552,6 +2563,9 @@
       <c r="L30">
         <v>1</v>
       </c>
+      <c r="O30" t="s">
+        <v>223</v>
+      </c>
       <c r="P30">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2598,6 +2612,13 @@
       <c r="L31">
         <v>0</v>
       </c>
+      <c r="N31" t="s">
+        <v>211</v>
+      </c>
+      <c r="O31">
+        <f>100 - COUNTIFS(C2:C101,0)</f>
+        <v>0</v>
+      </c>
       <c r="P31">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2644,6 +2665,13 @@
       <c r="L32">
         <v>0</v>
       </c>
+      <c r="N32" t="s">
+        <v>212</v>
+      </c>
+      <c r="O32">
+        <f>100 - COUNTIFS(D2:D101,0)</f>
+        <v>3</v>
+      </c>
       <c r="P32">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2690,6 +2718,13 @@
       <c r="L33">
         <v>0</v>
       </c>
+      <c r="N33" t="s">
+        <v>213</v>
+      </c>
+      <c r="O33">
+        <f>100 - COUNTIFS(E2:E101,0)</f>
+        <v>5</v>
+      </c>
       <c r="P33">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2736,6 +2771,13 @@
       <c r="L34">
         <v>0</v>
       </c>
+      <c r="N34" t="s">
+        <v>214</v>
+      </c>
+      <c r="O34">
+        <f>100 - COUNTIFS(F2:F101,0)</f>
+        <v>0</v>
+      </c>
       <c r="P34">
         <f t="shared" ref="P34:P65" si="2" xml:space="preserve"> COUNTIFS(C34:K34, 0)</f>
         <v>9</v>
@@ -2782,6 +2824,13 @@
       <c r="L35">
         <v>0</v>
       </c>
+      <c r="N35" t="s">
+        <v>215</v>
+      </c>
+      <c r="O35">
+        <f>100 - COUNTIFS(F1:F101,0)</f>
+        <v>0</v>
+      </c>
       <c r="P35">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -2828,6 +2877,13 @@
       <c r="L36">
         <v>0</v>
       </c>
+      <c r="N36" t="s">
+        <v>216</v>
+      </c>
+      <c r="O36">
+        <f>100 - COUNTIFS(H2:H101,0)</f>
+        <v>7</v>
+      </c>
       <c r="P36">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -2874,6 +2930,13 @@
       <c r="L37">
         <v>0</v>
       </c>
+      <c r="N37" t="s">
+        <v>217</v>
+      </c>
+      <c r="O37">
+        <f>100 - COUNTIFS(I2:I101,0)</f>
+        <v>6</v>
+      </c>
       <c r="P37">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -2920,6 +2983,13 @@
       <c r="L38">
         <v>0</v>
       </c>
+      <c r="N38" t="s">
+        <v>218</v>
+      </c>
+      <c r="O38">
+        <f>100 - COUNTIFS(J2:J101,0)</f>
+        <v>19</v>
+      </c>
       <c r="P38">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -2966,6 +3036,13 @@
       <c r="L39">
         <v>0</v>
       </c>
+      <c r="N39" t="s">
+        <v>219</v>
+      </c>
+      <c r="O39">
+        <f>100 - COUNTIFS(K2:K101,0)</f>
+        <v>0</v>
+      </c>
       <c r="P39">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -3011,6 +3088,13 @@
       </c>
       <c r="L40">
         <v>0</v>
+      </c>
+      <c r="N40" t="s">
+        <v>221</v>
+      </c>
+      <c r="O40">
+        <f>100 - COUNTIFS(L2:L101,0)</f>
+        <v>14</v>
       </c>
       <c r="P40">
         <f t="shared" si="2"/>

--- a/scripts/evaluationStats.xlsx
+++ b/scripts/evaluationStats.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anasofiaribeiro/Desktop/Thesis/Refactor4Green/scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anasofiaribeiro/Desktop/Thesis/EcoAndroid/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DD4335-F4DC-1F45-B425-6044CAEE87E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDA924C-4173-E443-8D06-7D10B3339E0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apps" sheetId="1" r:id="rId1"/>
+    <sheet name="Groups" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="230">
   <si>
     <t>APPLICATION NAME</t>
   </si>
@@ -706,6 +707,21 @@
   </si>
   <si>
     <t>2 retirados</t>
+  </si>
+  <si>
+    <t>1 retirado</t>
+  </si>
+  <si>
+    <t>2 possible switch</t>
+  </si>
+  <si>
+    <t>1 retirado de CheckMetadata</t>
+  </si>
+  <si>
+    <t>CheckNetwork errr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 possible switch + 2 com clear intent </t>
   </si>
 </sst>
 </file>
@@ -728,12 +744,42 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -752,7 +798,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
@@ -763,12 +809,27 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1105,7 +1166,7 @@
   <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1113,7 +1174,8 @@
     <col min="1" max="1" width="37.1640625" customWidth="1"/>
     <col min="2" max="2" width="50.6640625" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -1154,54 +1216,57 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <f xml:space="preserve"> COUNTIFS(Q2:Q101, 10)</f>
-        <v>64</v>
-      </c>
-      <c r="P2">
-        <f t="shared" ref="P2:P33" si="0" xml:space="preserve"> COUNTIFS(C2:K2, 0)</f>
-        <v>6</v>
-      </c>
-      <c r="Q2">
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="O2" s="5">
+        <f xml:space="preserve"> COUNTIFS(Q2:Q101, "&lt;10")</f>
+        <v>35</v>
+      </c>
+      <c r="P2" s="5">
+        <f xml:space="preserve"> COUNTIFS(C2:K2, 0)</f>
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5">
         <f xml:space="preserve"> COUNTIFS(C2:L2, 0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -1243,10 +1308,10 @@
       </c>
       <c r="O3">
         <f xml:space="preserve"> 100 - O2</f>
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="P3">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> COUNTIFS(C3:K3, 0)</f>
         <v>9</v>
       </c>
       <c r="Q3">
@@ -1254,48 +1319,48 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
         <v>1</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="0"/>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" ref="P4:P33" si="0" xml:space="preserve"> COUNTIFS(C4:K4, 0)</f>
         <v>8</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="5">
         <f t="shared" ref="Q4:Q66" si="1" xml:space="preserve"> COUNTIFS(C4:L4, 0)</f>
         <v>9</v>
       </c>
@@ -1611,7 +1676,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>225</v>
       </c>
       <c r="P11">
         <f t="shared" si="0"/>
@@ -2006,7 +2074,7 @@
       </c>
       <c r="O19">
         <f>SUM(E2:E101)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P19">
         <f t="shared" si="0"/>
@@ -2112,7 +2180,7 @@
       </c>
       <c r="O21">
         <f>SUM(G2:G101)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="P21">
         <f t="shared" si="0"/>
@@ -2158,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="s">
         <v>216</v>
@@ -2173,7 +2241,7 @@
       </c>
       <c r="Q22">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -2218,7 +2286,7 @@
       </c>
       <c r="O23">
         <f>SUM(I2:I101)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P23">
         <f t="shared" si="0"/>
@@ -2377,7 +2445,7 @@
       </c>
       <c r="O26">
         <f xml:space="preserve">  SUM(L2:L101)</f>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="P26">
         <f t="shared" si="0"/>
@@ -2425,6 +2493,10 @@
       <c r="L27">
         <v>0</v>
       </c>
+      <c r="O27">
+        <f xml:space="preserve"> SUM(O17:O26)</f>
+        <v>95</v>
+      </c>
       <c r="P27">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2530,7 +2602,7 @@
       <c r="A30" t="s">
         <v>67</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C30">
@@ -2723,7 +2795,7 @@
       </c>
       <c r="O33">
         <f>100 - COUNTIFS(E2:E101,0)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P33">
         <f t="shared" si="0"/>
@@ -2828,8 +2900,8 @@
         <v>215</v>
       </c>
       <c r="O35">
-        <f>100 - COUNTIFS(F1:F101,0)</f>
-        <v>0</v>
+        <f>100 - COUNTIFS(G2:G101,0)</f>
+        <v>6</v>
       </c>
       <c r="P35">
         <f t="shared" si="2"/>
@@ -3094,7 +3166,7 @@
       </c>
       <c r="O40">
         <f>100 - COUNTIFS(L2:L101,0)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P40">
         <f t="shared" si="2"/>
@@ -3815,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -3832,13 +3904,16 @@
       <c r="L56">
         <v>1</v>
       </c>
+      <c r="M56" t="s">
+        <v>227</v>
+      </c>
       <c r="P56">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q56">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
@@ -4014,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60">
         <f t="shared" si="2"/>
@@ -4022,7 +4097,7 @@
       </c>
       <c r="Q60">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
@@ -4198,7 +4273,10 @@
         <v>0</v>
       </c>
       <c r="L64">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M64" t="s">
+        <v>225</v>
       </c>
       <c r="P64">
         <f t="shared" si="2"/>
@@ -4229,7 +4307,7 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -4248,11 +4326,11 @@
       </c>
       <c r="P65">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q65">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
@@ -4419,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -4429,6 +4507,9 @@
       </c>
       <c r="L69">
         <v>0</v>
+      </c>
+      <c r="M69" t="s">
+        <v>229</v>
       </c>
       <c r="P69">
         <f t="shared" si="3"/>
@@ -4936,6 +5017,9 @@
       <c r="L80">
         <v>1</v>
       </c>
+      <c r="M80" t="s">
+        <v>226</v>
+      </c>
       <c r="P80">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -5302,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="L88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P88">
         <f t="shared" si="3"/>
@@ -5310,7 +5394,7 @@
       </c>
       <c r="Q88">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
@@ -5912,6 +5996,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -5946,7 +6035,343 @@
     <hyperlink ref="B94" r:id="rId31" xr:uid="{D022DEFE-707B-3B49-9F78-C5F8829F9FE8}"/>
     <hyperlink ref="B88" r:id="rId32" xr:uid="{D97E41EF-050E-5840-88D7-90C170781DB8}"/>
     <hyperlink ref="B65" r:id="rId33" xr:uid="{17445096-E7BF-5141-AACD-FD0E42666A31}"/>
+    <hyperlink ref="B30" r:id="rId34" xr:uid="{699A1B0D-4F57-294F-AB8F-88EA33001ADE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616ED232-1442-C846-8773-BBB76FCD26A0}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2">
+        <f xml:space="preserve"> COUNTIFS(Apps!C2:C101, "&gt;0", Apps!D2:D101, "&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f xml:space="preserve"> COUNTIFS(Apps!C2:C101, "&gt;0", Apps!E2:E101, "&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f xml:space="preserve"> COUNTIFS(Apps!C2:C101, "&gt;0", Apps!F2:F101, "&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f xml:space="preserve"> COUNTIFS(Apps!C2:C101, "&gt;0", Apps!G2:G101, "&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f xml:space="preserve"> COUNTIFS(Apps!C2:C101, "&gt;0", Apps!H2:H101, "&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f xml:space="preserve"> COUNTIFS(Apps!C2:C101, "&gt;0", Apps!I2:I101, "&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f xml:space="preserve"> COUNTIFS(Apps!C2:C101, "&gt;0", Apps!J2:J101, "&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f xml:space="preserve"> COUNTIFS(Apps!C2:C101, "&gt;0", Apps!K2:K101, "&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f xml:space="preserve"> COUNTIFS(Apps!C2:C101, "&gt;0", Apps!L2:L101, "&gt;0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3">
+        <f xml:space="preserve"> COUNTIFS(Apps!D2:D101, "&gt;0", Apps!E2:E101, "&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f xml:space="preserve"> COUNTIFS(Apps!D2:D101, "&gt;0", Apps!F2:F101, "&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <f xml:space="preserve"> COUNTIFS(Apps!D2:D101, "&gt;0", Apps!G2:G101, "&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f xml:space="preserve"> COUNTIFS(Apps!D2:D101, "&gt;0", Apps!H2:H101, "&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f xml:space="preserve"> COUNTIFS(Apps!D2:D101, "&gt;0", Apps!I2:I101, "&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <f xml:space="preserve"> COUNTIFS(Apps!D2:D101, "&gt;0", Apps!J2:J101, "&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f xml:space="preserve"> COUNTIFS(Apps!D2:D101, "&gt;0", Apps!K2:K101, "&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <f xml:space="preserve"> COUNTIFS(Apps!D2:D101, "&gt;0", Apps!L2:L101, "&gt;0")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4">
+        <f xml:space="preserve"> COUNTIFS(Apps!E2:E101, "&gt;0", Apps!F2:F101, "&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <f xml:space="preserve"> COUNTIFS(Apps!E2:E101, "&gt;0", Apps!G2:G101, "&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <f xml:space="preserve"> COUNTIFS(Apps!E2:E101, "&gt;0", Apps!H2:H101, "&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f xml:space="preserve"> COUNTIFS(Apps!E2:E101, "&gt;0", Apps!I2:I101, "&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <f xml:space="preserve"> COUNTIFS(Apps!E2:E101, "&gt;0", Apps!J2:J101, "&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <f xml:space="preserve"> COUNTIFS(Apps!E2:E101, "&gt;0", Apps!K2:K101, "&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f xml:space="preserve"> COUNTIFS(Apps!E2:E101, "&gt;0", Apps!L2:L101, "&gt;0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5">
+        <f xml:space="preserve"> COUNTIFS(Apps!F2:F101, "&gt;0", Apps!G2:G101, "&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f xml:space="preserve"> COUNTIFS(Apps!F2:F101, "&gt;0", Apps!H2:H101, "&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f xml:space="preserve"> COUNTIFS(Apps!F2:F101,  "&gt;0", Apps!I2:I101, "&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f xml:space="preserve"> COUNTIFS(Apps!F2:F101,  "&gt;0", Apps!J2:J101, "&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f xml:space="preserve"> COUNTIFS(Apps!F2:F101,  "&gt;0", Apps!K2:K101, "&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f xml:space="preserve"> COUNTIFS(Apps!F2:F101,  "&gt;0", Apps!L2:L101, "&gt;0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6">
+        <f xml:space="preserve"> COUNTIFS(Apps!G2:G101, "&gt;0", Apps!H2:H101, "&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <f xml:space="preserve"> COUNTIFS(Apps!G2:G101, "&gt;0", Apps!I2:I101, "&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <f xml:space="preserve"> COUNTIFS(Apps!G2:G101, "&gt;0", Apps!J2:J101, "&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f xml:space="preserve"> COUNTIFS(Apps!G2:G101, "&gt;0", Apps!K2:K101, "&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <f xml:space="preserve"> COUNTIFS(Apps!G2:G101, "&gt;0", Apps!L2:L101, "&gt;0")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7">
+        <f xml:space="preserve"> COUNTIFS(Apps!H2:H101, "&gt;0", Apps!I2:I101, "&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <f xml:space="preserve"> COUNTIFS(Apps!H2:H101, "&gt;0", Apps!J2:J101, "&gt;0")</f>
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <f xml:space="preserve"> COUNTIFS(Apps!H2:H101, "&gt;0", Apps!K2:K101, "&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f xml:space="preserve"> COUNTIFS(Apps!H2:H101, "&gt;0", Apps!L2:L101, "&gt;0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="9">
+        <f xml:space="preserve"> COUNTIFS(Apps!I2:I101, "&gt;0", Apps!J2:J101, "&gt;0")</f>
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <f xml:space="preserve"> COUNTIFS(Apps!I2:I101, "&gt;0", Apps!K2:K101, "&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f xml:space="preserve"> COUNTIFS(Apps!K2:K101, "&gt;0", Apps!L2:L101, "&gt;0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9">
+        <f xml:space="preserve"> COUNTIFS(Apps!J2:J101, "&gt;0", Apps!K2:K101, "&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="10">
+        <f xml:space="preserve"> COUNTIFS(Apps!J2:J101, "&gt;0", Apps!L2:L101, "&gt;0")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10">
+        <f xml:space="preserve"> COUNTIFS(Apps!K2:K101, "&gt;0", Apps!L2:L101, "&gt;0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>